--- a/uploads/lkp2_template_baru_-_Copy.xlsx
+++ b/uploads/lkp2_template_baru_-_Copy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intern\LSP Trust\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B524F74A-E2C4-4369-A8DD-492DB4E99AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E10E5CC-C9E4-4E64-AA86-7E6989498955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="80">
   <si>
     <t>No</t>
   </si>
@@ -238,6 +238,42 @@
   </si>
   <si>
     <t>Pendidikan_Terakhir</t>
+  </si>
+  <si>
+    <t>0812345678</t>
+  </si>
+  <si>
+    <t>0812345679</t>
+  </si>
+  <si>
+    <t>0812345680</t>
+  </si>
+  <si>
+    <t>0812345681</t>
+  </si>
+  <si>
+    <t>0812345682</t>
+  </si>
+  <si>
+    <t>0812345683</t>
+  </si>
+  <si>
+    <t>0812345684</t>
+  </si>
+  <si>
+    <t>0812345685</t>
+  </si>
+  <si>
+    <t>0812345686</t>
+  </si>
+  <si>
+    <t>0812345687</t>
+  </si>
+  <si>
+    <t>0812345688</t>
+  </si>
+  <si>
+    <t>0812345689</t>
   </si>
 </sst>
 </file>
@@ -288,11 +324,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -577,7 +615,7 @@
   <dimension ref="A1:AQ13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="I2" sqref="I2:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -589,7 +627,7 @@
     <col min="5" max="6" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.88671875" customWidth="1"/>
     <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
@@ -647,7 +685,7 @@
       <c r="H1" t="s">
         <v>52</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J1" t="s">
@@ -778,8 +816,8 @@
       <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="2">
-        <v>62812345678</v>
+      <c r="I2" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="J2" t="s">
         <v>30</v>
@@ -909,8 +947,8 @@
       <c r="H3" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="2">
-        <v>62812345679</v>
+      <c r="I3" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="J3" t="s">
         <v>30</v>
@@ -1040,8 +1078,8 @@
       <c r="H4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="2">
-        <v>62812345678</v>
+      <c r="I4" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="J4" t="s">
         <v>30</v>
@@ -1171,8 +1209,8 @@
       <c r="H5" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="2">
-        <v>62812345679</v>
+      <c r="I5" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="J5" t="s">
         <v>30</v>
@@ -1302,8 +1340,8 @@
       <c r="H6" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="2">
-        <v>62812345678</v>
+      <c r="I6" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="J6" t="s">
         <v>30</v>
@@ -1433,8 +1471,8 @@
       <c r="H7" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="2">
-        <v>62812345679</v>
+      <c r="I7" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="J7" t="s">
         <v>30</v>
@@ -1564,8 +1602,8 @@
       <c r="H8" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="2">
-        <v>62812345678</v>
+      <c r="I8" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="J8" t="s">
         <v>30</v>
@@ -1695,8 +1733,8 @@
       <c r="H9" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="2">
-        <v>62812345679</v>
+      <c r="I9" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="J9" t="s">
         <v>30</v>
@@ -1826,8 +1864,8 @@
       <c r="H10" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="2">
-        <v>62812345678</v>
+      <c r="I10" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="J10" t="s">
         <v>30</v>
@@ -1957,8 +1995,8 @@
       <c r="H11" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="2">
-        <v>62812345679</v>
+      <c r="I11" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="J11" t="s">
         <v>30</v>
@@ -2088,8 +2126,8 @@
       <c r="H12" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="2">
-        <v>62812345678</v>
+      <c r="I12" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="J12" t="s">
         <v>30</v>
@@ -2219,8 +2257,8 @@
       <c r="H13" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="2">
-        <v>62812345679</v>
+      <c r="I13" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="J13" t="s">
         <v>30</v>
